--- a/documents/json_tkp.xlsx
+++ b/documents/json_tkp.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\coconut\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="3060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="3060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="inf_oid" sheetId="1" r:id="rId1"/>
     <sheet name="JSON" sheetId="2" r:id="rId2"/>
     <sheet name="configuration" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -479,13 +485,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-1010409]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="187" formatCode="[$-1010409]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -493,7 +499,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -501,7 +507,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="major"/>
@@ -510,7 +516,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -519,7 +525,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -528,7 +534,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -536,7 +542,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -544,7 +550,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -552,7 +558,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -560,7 +566,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -569,7 +575,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -578,7 +584,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -586,7 +592,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -595,7 +601,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -603,7 +609,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -612,7 +618,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -621,7 +627,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -629,7 +635,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -637,7 +643,7 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -645,7 +651,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -666,7 +672,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -675,7 +681,7 @@
       <u/>
       <sz val="8"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1185,7 +1191,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1239,19 +1245,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1279,37 +1276,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="37" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1917,7 +1932,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1925,21 +1940,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>94</v>
       </c>
@@ -1949,8 +1964,9 @@
       <c r="C1" s="14" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="D1" s="53"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1960,8 +1976,9 @@
       <c r="C2" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="D2" s="54"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -1971,11 +1988,12 @@
       <c r="C3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -1985,18 +2003,20 @@
       <c r="C4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D4" s="55"/>
+      <c r="G4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -2006,11 +2026,12 @@
       <c r="C7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>5</v>
       </c>
@@ -2020,11 +2041,12 @@
       <c r="C8" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -2034,8 +2056,9 @@
       <c r="C9" s="12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="D9" s="54"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>7</v>
       </c>
@@ -2045,8 +2068,9 @@
       <c r="C10" s="24" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="D10" s="55"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>8</v>
       </c>
@@ -2056,13 +2080,14 @@
       <c r="C11" s="24" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="D11" s="55"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>9</v>
       </c>
@@ -2072,8 +2097,9 @@
       <c r="C14" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="D14" s="54"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>10</v>
       </c>
@@ -2083,8 +2109,9 @@
       <c r="C15" s="24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="D15" s="55"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>11</v>
       </c>
@@ -2094,8 +2121,9 @@
       <c r="C16" s="24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="55"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>12</v>
       </c>
@@ -2105,8 +2133,9 @@
       <c r="C17" s="24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="55"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>13</v>
       </c>
@@ -2116,8 +2145,9 @@
       <c r="C18" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="54"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>14</v>
       </c>
@@ -2127,13 +2157,14 @@
       <c r="C19" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>15</v>
       </c>
@@ -2143,8 +2174,9 @@
       <c r="C22" s="12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="54"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>16</v>
       </c>
@@ -2154,8 +2186,9 @@
       <c r="C23" s="24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="55"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>17</v>
       </c>
@@ -2165,8 +2198,9 @@
       <c r="C24" s="24" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="55"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>18</v>
       </c>
@@ -2176,8 +2210,9 @@
       <c r="C25" s="24" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="55"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>19</v>
       </c>
@@ -2187,8 +2222,9 @@
       <c r="C26" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="54"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>20</v>
       </c>
@@ -2198,13 +2234,14 @@
       <c r="C27" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D27" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>21</v>
       </c>
@@ -2214,8 +2251,9 @@
       <c r="C30" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="54"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>22</v>
       </c>
@@ -2225,8 +2263,9 @@
       <c r="C31" s="24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="55"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
         <v>23</v>
       </c>
@@ -2236,8 +2275,9 @@
       <c r="C32" s="24" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="55"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="22">
         <v>24</v>
       </c>
@@ -2247,8 +2287,9 @@
       <c r="C33" s="24" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="55"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>25</v>
       </c>
@@ -2258,8 +2299,9 @@
       <c r="C34" s="12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="54"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>26</v>
       </c>
@@ -2269,13 +2311,14 @@
       <c r="C35" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D35" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>27</v>
       </c>
@@ -2285,8 +2328,9 @@
       <c r="C38" s="12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="54"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="22">
         <v>28</v>
       </c>
@@ -2296,8 +2340,9 @@
       <c r="C39" s="24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="55"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="22">
         <v>29</v>
       </c>
@@ -2307,8 +2352,9 @@
       <c r="C40" s="24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="55"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="22">
         <v>30</v>
       </c>
@@ -2318,8 +2364,9 @@
       <c r="C41" s="24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="55"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>31</v>
       </c>
@@ -2329,8 +2376,9 @@
       <c r="C42" s="12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="54"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>32</v>
       </c>
@@ -2340,13 +2388,14 @@
       <c r="C43" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D43" s="9"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>33</v>
       </c>
@@ -2356,8 +2405,9 @@
       <c r="C46" s="12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="54"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="22">
         <v>34</v>
       </c>
@@ -2367,8 +2417,9 @@
       <c r="C47" s="24" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="55"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="22">
         <v>35</v>
       </c>
@@ -2378,8 +2429,9 @@
       <c r="C48" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="55"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="22">
         <v>36</v>
       </c>
@@ -2389,8 +2441,9 @@
       <c r="C49" s="24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="55"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>37</v>
       </c>
@@ -2400,8 +2453,9 @@
       <c r="C50" s="12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="54"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>38</v>
       </c>
@@ -2411,20 +2465,22 @@
       <c r="C51" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D51" s="9"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="5"/>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>38</v>
       </c>
@@ -2434,8 +2490,9 @@
       <c r="C55" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="54"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>39</v>
       </c>
@@ -2445,8 +2502,9 @@
       <c r="C56" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="54"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>40</v>
       </c>
@@ -2456,8 +2514,9 @@
       <c r="C57" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="54"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>41</v>
       </c>
@@ -2467,8 +2526,9 @@
       <c r="C58" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="54"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>42</v>
       </c>
@@ -2478,13 +2538,14 @@
       <c r="C59" s="12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D59" s="54"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
         <v>43</v>
       </c>
@@ -2494,8 +2555,9 @@
       <c r="C62" s="12" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="54"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
         <v>44</v>
       </c>
@@ -2505,8 +2567,9 @@
       <c r="C63" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="54"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
         <v>45</v>
       </c>
@@ -2516,8 +2579,9 @@
       <c r="C64" s="12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="54"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
         <v>46</v>
       </c>
@@ -2527,8 +2591,9 @@
       <c r="C65" s="12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="54"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
         <v>47</v>
       </c>
@@ -2538,13 +2603,14 @@
       <c r="C66" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D66" s="54"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B68" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="10">
         <v>48</v>
       </c>
@@ -2554,8 +2620,9 @@
       <c r="C69" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="54"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
         <v>49</v>
       </c>
@@ -2565,8 +2632,9 @@
       <c r="C70" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="54"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
         <v>50</v>
       </c>
@@ -2576,8 +2644,9 @@
       <c r="C71" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="54"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
         <v>51</v>
       </c>
@@ -2587,8 +2656,9 @@
       <c r="C72" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="54"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
         <v>52</v>
       </c>
@@ -2598,13 +2668,14 @@
       <c r="C73" s="12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D73" s="54"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
         <v>53</v>
       </c>
@@ -2614,8 +2685,9 @@
       <c r="C76" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="54"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
         <v>54</v>
       </c>
@@ -2625,8 +2697,9 @@
       <c r="C77" s="12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="54"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
         <v>55</v>
       </c>
@@ -2636,8 +2709,9 @@
       <c r="C78" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="54"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
         <v>56</v>
       </c>
@@ -2647,8 +2721,9 @@
       <c r="C79" s="12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" s="54"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
         <v>57</v>
       </c>
@@ -2658,15 +2733,17 @@
       <c r="C80" s="12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D80" s="54"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="5"/>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="10">
         <v>58</v>
       </c>
@@ -2676,8 +2753,9 @@
       <c r="C83" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="54"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="10">
         <v>59</v>
       </c>
@@ -2687,8 +2765,9 @@
       <c r="C84" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="54"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="10">
         <v>60</v>
       </c>
@@ -2698,8 +2777,9 @@
       <c r="C85" s="12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" s="54"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="10">
         <v>61</v>
       </c>
@@ -2709,8 +2789,9 @@
       <c r="C86" s="12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="54"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="10">
         <v>62</v>
       </c>
@@ -2720,8 +2801,9 @@
       <c r="C87" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" s="54"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="10">
         <v>63</v>
       </c>
@@ -2731,8 +2813,9 @@
       <c r="C88" s="12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" s="54"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="10">
         <v>64</v>
       </c>
@@ -2742,8 +2825,9 @@
       <c r="C89" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" s="54"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="10">
         <v>65</v>
       </c>
@@ -2753,8 +2837,9 @@
       <c r="C90" s="12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="54"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="10">
         <v>66</v>
       </c>
@@ -2764,8 +2849,9 @@
       <c r="C91" s="12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" s="54"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="10">
         <v>67</v>
       </c>
@@ -2775,6 +2861,7 @@
       <c r="C92" s="12" t="s">
         <v>90</v>
       </c>
+      <c r="D92" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2786,30 +2873,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="6" max="6" width="51" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>101</v>
       </c>
@@ -2819,7 +2906,7 @@
       <c r="E2" s="16"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
         <v>102</v>
@@ -2833,7 +2920,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>113</v>
@@ -2845,7 +2932,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
         <v>104</v>
@@ -2857,7 +2944,7 @@
       <c r="E5" s="16"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -2867,7 +2954,7 @@
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2882,7 +2969,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -2894,7 +2981,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -2906,7 +2993,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -2918,7 +3005,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -2928,7 +3015,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -2938,7 +3025,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -2948,7 +3035,7 @@
       </c>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -2958,7 +3045,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16" t="s">
@@ -2972,7 +3059,7 @@
       </c>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>110</v>
       </c>
@@ -2982,17 +3069,17 @@
       <c r="E16" s="19"/>
       <c r="F16" s="20"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="249.75" customHeight="1">
+    <row r="20" spans="1:7" ht="249.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="46" t="s">
         <v>128</v>
       </c>
@@ -3001,20 +3088,20 @@
       <c r="E20" s="46"/>
       <c r="F20" s="46"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="41" t="s">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B23" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3031,97 +3118,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="8" max="9" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F2" s="15"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="E3" s="27" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E3" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="37" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="34" t="s">
         <v>143</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="36" t="s">
+      <c r="F4" s="49"/>
+      <c r="G4" s="33" t="s">
         <v>120</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="33" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="28" t="s">
         <v>132</v>
       </c>
       <c r="F5" s="15"/>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="30" t="s">
         <v>123</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="25"/>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="29" t="s">
         <v>141</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="30" t="s">
         <v>136</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
         <v>122</v>
       </c>
@@ -3129,15 +3216,15 @@
         <v>133</v>
       </c>
       <c r="F7" s="15"/>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="29" t="s">
         <v>122</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:11">
-      <c r="D8" s="51" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D8" s="42" t="s">
         <v>134</v>
       </c>
       <c r="F8" s="15"/>
@@ -3147,7 +3234,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1">
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -3155,24 +3242,24 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
-      <c r="B10" s="34" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="52" t="s">
+      <c r="D10" s="36"/>
+      <c r="E10" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="42"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="25"/>
-      <c r="D11" s="40"/>
+      <c r="D11" s="37"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -3180,21 +3267,21 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
-      <c r="B12" s="29"/>
-      <c r="D12" s="38"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="27"/>
+      <c r="D12" s="35"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="42"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="36"/>
       <c r="F13" s="15"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -3202,64 +3289,64 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
-      <c r="D14" s="38"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D14" s="35"/>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:11">
-      <c r="B15" s="34" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="31" t="s">
         <v>126</v>
       </c>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="25"/>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="25"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
         <v>127</v>
       </c>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="B20" s="34" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="25"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="25"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="26" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25" s="39">
         <v>42642</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="45" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="40" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3276,4 +3363,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/json_tkp.xlsx
+++ b/documents/json_tkp.xlsx
@@ -1,18 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\coconut\documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="3060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="3060" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="inf_oid" sheetId="1" r:id="rId1"/>
+    <sheet name="solar_plant" sheetId="1" r:id="rId1"/>
     <sheet name="JSON" sheetId="2" r:id="rId2"/>
     <sheet name="configuration" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="153">
   <si>
     <t>******Overall information***********</t>
   </si>
@@ -324,18 +319,12 @@
     <t>(Zone D, Zone E ถือเป็น 1 Zone เดียวกัน)</t>
   </si>
   <si>
-    <t>JSON Format</t>
-  </si>
-  <si>
     <t>{</t>
   </si>
   <si>
     <t xml:space="preserve">"plant" : </t>
   </si>
   <si>
-    <t>"TKP-Solar"</t>
-  </si>
-  <si>
     <t>"data" :</t>
   </si>
   <si>
@@ -429,9 +418,6 @@
     <t>MEAN STACK</t>
   </si>
   <si>
-    <t>See sheet inf_oid blue color</t>
-  </si>
-  <si>
     <t>Flash</t>
   </si>
   <si>
@@ -478,6 +464,44 @@
   </si>
   <si>
     <t>HTML/JSON</t>
+  </si>
+  <si>
+    <t>"Solar Plant"</t>
+  </si>
+  <si>
+    <t>"Solar Roof"</t>
+  </si>
+  <si>
+    <r>
+      <t>JSON Format: http://&lt;host&gt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>JSON Format: http://&lt;host&gt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -485,13 +509,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="187" formatCode="[$-1010409]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1010409]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -499,7 +523,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -507,7 +531,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Tahoma"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="major"/>
@@ -516,7 +540,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -525,7 +549,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -534,7 +558,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -542,7 +566,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -550,7 +574,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -558,7 +582,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -566,7 +590,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -575,7 +599,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -584,7 +608,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -592,7 +616,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -601,7 +625,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -609,7 +633,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -618,7 +642,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -627,7 +651,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -635,7 +659,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -643,7 +667,7 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -651,7 +675,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -672,7 +696,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -681,9 +705,25 @@
       <u/>
       <sz val="8"/>
       <color theme="10"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1191,7 +1231,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1279,7 +1319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1287,14 +1327,14 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="37" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1317,14 +1357,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="37" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1932,7 +1975,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1947,14 +1990,14 @@
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="28.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="13" t="s">
         <v>94</v>
       </c>
@@ -1964,9 +2007,9 @@
       <c r="C1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="53"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1" s="43"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1976,9 +2019,9 @@
       <c r="C2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="54"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2" s="44"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -1988,12 +2031,12 @@
       <c r="C3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="45"/>
       <c r="E3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -2003,12 +2046,12 @@
       <c r="C4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="45"/>
       <c r="G4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>0</v>
@@ -2016,7 +2059,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -2026,12 +2069,12 @@
       <c r="C7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="54"/>
+      <c r="D7" s="44"/>
       <c r="E7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="22">
         <v>5</v>
       </c>
@@ -2041,12 +2084,12 @@
       <c r="C8" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="45"/>
       <c r="E8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -2056,9 +2099,9 @@
       <c r="C9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="54"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D9" s="44"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="22">
         <v>7</v>
       </c>
@@ -2068,9 +2111,9 @@
       <c r="C10" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="55"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D10" s="45"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="22">
         <v>8</v>
       </c>
@@ -2080,14 +2123,14 @@
       <c r="C11" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="55"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D11" s="45"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="10">
         <v>9</v>
       </c>
@@ -2097,9 +2140,9 @@
       <c r="C14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="54"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D14" s="44"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="22">
         <v>10</v>
       </c>
@@ -2109,9 +2152,9 @@
       <c r="C15" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="55"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" s="45"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="22">
         <v>11</v>
       </c>
@@ -2121,9 +2164,9 @@
       <c r="C16" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="55"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="45"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="22">
         <v>12</v>
       </c>
@@ -2133,9 +2176,9 @@
       <c r="C17" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="55"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="45"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="10">
         <v>13</v>
       </c>
@@ -2145,9 +2188,9 @@
       <c r="C18" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="54"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="44"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="7">
         <v>14</v>
       </c>
@@ -2159,12 +2202,12 @@
       </c>
       <c r="D19" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="B21" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="10">
         <v>15</v>
       </c>
@@ -2174,9 +2217,9 @@
       <c r="C22" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="54"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="44"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="22">
         <v>16</v>
       </c>
@@ -2186,9 +2229,9 @@
       <c r="C23" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="55"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="45"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="22">
         <v>17</v>
       </c>
@@ -2198,9 +2241,9 @@
       <c r="C24" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="55"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="45"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="22">
         <v>18</v>
       </c>
@@ -2210,9 +2253,9 @@
       <c r="C25" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="55"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="45"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="10">
         <v>19</v>
       </c>
@@ -2222,9 +2265,9 @@
       <c r="C26" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="54"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="44"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="7">
         <v>20</v>
       </c>
@@ -2236,12 +2279,12 @@
       </c>
       <c r="D27" s="9"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="B29" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="10">
         <v>21</v>
       </c>
@@ -2251,9 +2294,9 @@
       <c r="C30" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="54"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="44"/>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="22">
         <v>22</v>
       </c>
@@ -2263,9 +2306,9 @@
       <c r="C31" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="55"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="45"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="22">
         <v>23</v>
       </c>
@@ -2273,11 +2316,11 @@
         <v>16</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="55"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="D32" s="45"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="22">
         <v>24</v>
       </c>
@@ -2287,9 +2330,9 @@
       <c r="C33" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="55"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="45"/>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="10">
         <v>25</v>
       </c>
@@ -2299,9 +2342,9 @@
       <c r="C34" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="54"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="44"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="7">
         <v>26</v>
       </c>
@@ -2313,12 +2356,12 @@
       </c>
       <c r="D35" s="9"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="B37" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="10">
         <v>27</v>
       </c>
@@ -2328,9 +2371,9 @@
       <c r="C38" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="54"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="44"/>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="22">
         <v>28</v>
       </c>
@@ -2340,9 +2383,9 @@
       <c r="C39" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="55"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="45"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="22">
         <v>29</v>
       </c>
@@ -2352,9 +2395,9 @@
       <c r="C40" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="55"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="45"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="22">
         <v>30</v>
       </c>
@@ -2364,9 +2407,9 @@
       <c r="C41" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="55"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D41" s="45"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="10">
         <v>31</v>
       </c>
@@ -2376,9 +2419,9 @@
       <c r="C42" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="54"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D42" s="44"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="7">
         <v>32</v>
       </c>
@@ -2390,12 +2433,12 @@
       </c>
       <c r="D43" s="9"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="B45" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="10">
         <v>33</v>
       </c>
@@ -2405,9 +2448,9 @@
       <c r="C46" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="54"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D46" s="44"/>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="22">
         <v>34</v>
       </c>
@@ -2417,9 +2460,9 @@
       <c r="C47" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="55"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D47" s="45"/>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="22">
         <v>35</v>
       </c>
@@ -2429,9 +2472,9 @@
       <c r="C48" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="55"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D48" s="45"/>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="22">
         <v>36</v>
       </c>
@@ -2441,9 +2484,9 @@
       <c r="C49" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="55"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D49" s="45"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="10">
         <v>37</v>
       </c>
@@ -2453,9 +2496,9 @@
       <c r="C50" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="54"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D50" s="44"/>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="7">
         <v>38</v>
       </c>
@@ -2467,7 +2510,7 @@
       </c>
       <c r="D51" s="9"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="3"/>
       <c r="B53" s="4" t="s">
         <v>6</v>
@@ -2475,12 +2518,12 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="B54" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="10">
         <v>38</v>
       </c>
@@ -2490,9 +2533,9 @@
       <c r="C55" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="54"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D55" s="44"/>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="10">
         <v>39</v>
       </c>
@@ -2502,9 +2545,9 @@
       <c r="C56" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="54"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D56" s="44"/>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="10">
         <v>40</v>
       </c>
@@ -2514,9 +2557,9 @@
       <c r="C57" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="54"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D57" s="44"/>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="10">
         <v>41</v>
       </c>
@@ -2526,9 +2569,9 @@
       <c r="C58" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D58" s="54"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D58" s="44"/>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="10">
         <v>42</v>
       </c>
@@ -2538,14 +2581,14 @@
       <c r="C59" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="54"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D59" s="44"/>
+    </row>
+    <row r="61" spans="1:4">
       <c r="B61" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="10">
         <v>43</v>
       </c>
@@ -2555,9 +2598,9 @@
       <c r="C62" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="54"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D62" s="44"/>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="10">
         <v>44</v>
       </c>
@@ -2567,9 +2610,9 @@
       <c r="C63" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="54"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D63" s="44"/>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="10">
         <v>45</v>
       </c>
@@ -2579,9 +2622,9 @@
       <c r="C64" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D64" s="54"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D64" s="44"/>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="10">
         <v>46</v>
       </c>
@@ -2591,9 +2634,9 @@
       <c r="C65" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D65" s="54"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D65" s="44"/>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="10">
         <v>47</v>
       </c>
@@ -2603,14 +2646,14 @@
       <c r="C66" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D66" s="54"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D66" s="44"/>
+    </row>
+    <row r="68" spans="1:4">
       <c r="B68" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="10">
         <v>48</v>
       </c>
@@ -2620,9 +2663,9 @@
       <c r="C69" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="54"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D69" s="44"/>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="10">
         <v>49</v>
       </c>
@@ -2632,9 +2675,9 @@
       <c r="C70" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D70" s="54"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D70" s="44"/>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="10">
         <v>50</v>
       </c>
@@ -2644,9 +2687,9 @@
       <c r="C71" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D71" s="54"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D71" s="44"/>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="10">
         <v>51</v>
       </c>
@@ -2656,9 +2699,9 @@
       <c r="C72" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="54"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D72" s="44"/>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="10">
         <v>52</v>
       </c>
@@ -2668,14 +2711,14 @@
       <c r="C73" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D73" s="54"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D73" s="44"/>
+    </row>
+    <row r="75" spans="1:4">
       <c r="B75" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="10">
         <v>53</v>
       </c>
@@ -2685,9 +2728,9 @@
       <c r="C76" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D76" s="54"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D76" s="44"/>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="10">
         <v>54</v>
       </c>
@@ -2697,9 +2740,9 @@
       <c r="C77" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D77" s="54"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D77" s="44"/>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="10">
         <v>55</v>
       </c>
@@ -2709,9 +2752,9 @@
       <c r="C78" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D78" s="54"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D78" s="44"/>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="10">
         <v>56</v>
       </c>
@@ -2721,9 +2764,9 @@
       <c r="C79" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D79" s="54"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D79" s="44"/>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="10">
         <v>57</v>
       </c>
@@ -2733,9 +2776,9 @@
       <c r="C80" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D80" s="54"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D80" s="44"/>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="3"/>
       <c r="B82" s="4" t="s">
         <v>10</v>
@@ -2743,7 +2786,7 @@
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" s="10">
         <v>58</v>
       </c>
@@ -2753,9 +2796,9 @@
       <c r="C83" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D83" s="54"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D83" s="44"/>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="10">
         <v>59</v>
       </c>
@@ -2765,9 +2808,9 @@
       <c r="C84" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D84" s="54"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D84" s="44"/>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="10">
         <v>60</v>
       </c>
@@ -2777,9 +2820,9 @@
       <c r="C85" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D85" s="54"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D85" s="44"/>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="10">
         <v>61</v>
       </c>
@@ -2789,9 +2832,9 @@
       <c r="C86" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D86" s="54"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D86" s="44"/>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="10">
         <v>62</v>
       </c>
@@ -2801,9 +2844,9 @@
       <c r="C87" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D87" s="54"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D87" s="44"/>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="10">
         <v>63</v>
       </c>
@@ -2813,9 +2856,9 @@
       <c r="C88" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="54"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D88" s="44"/>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="10">
         <v>64</v>
       </c>
@@ -2825,9 +2868,9 @@
       <c r="C89" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D89" s="54"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D89" s="44"/>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="10">
         <v>65</v>
       </c>
@@ -2837,9 +2880,9 @@
       <c r="C90" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D90" s="54"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D90" s="44"/>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="10">
         <v>66</v>
       </c>
@@ -2849,9 +2892,9 @@
       <c r="C91" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D91" s="54"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D91" s="44"/>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="10">
         <v>67</v>
       </c>
@@ -2861,7 +2904,7 @@
       <c r="C92" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D92" s="54"/>
+      <c r="D92" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2871,231 +2914,381 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="6" max="6" width="51" customWidth="1"/>
-    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:13" ht="25.5" customHeight="1">
+      <c r="A1" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="H1" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>101</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="15"/>
+      <c r="I5" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="20"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="B19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="249.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="249.75" customHeight="1">
       <c r="B20" s="46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="46"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="B22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="B23" s="47" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
@@ -3104,10 +3297,11 @@
       <c r="G23" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3118,21 +3312,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="9.125" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="25.5" customHeight="1">
       <c r="A1" s="51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -3144,88 +3338,88 @@
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="F2" s="15"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="E3" s="52" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="34" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="B4" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F4" s="49"/>
       <c r="G4" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="B5" s="30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="B6" s="25"/>
       <c r="D6" s="29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="B7" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="D8" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
@@ -3234,7 +3428,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -3242,13 +3436,13 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="B10" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="50" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="38"/>
@@ -3257,7 +3451,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="B11" s="25"/>
       <c r="D11" s="37"/>
       <c r="F11" s="15"/>
@@ -3267,7 +3461,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="B12" s="27"/>
       <c r="D12" s="35"/>
       <c r="F12" s="15"/>
@@ -3277,9 +3471,9 @@
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="B13" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D13" s="36"/>
       <c r="F13" s="15"/>
@@ -3289,65 +3483,65 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="D14" s="35"/>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="B15" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="B16" s="25"/>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="B17" s="25"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="B18" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="B20" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" s="25"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" s="25"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="25"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="25"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>145</v>
       </c>
       <c r="B25" s="39">
         <v>42642</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="41" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3371,7 +3565,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/json_tkp.xlsx
+++ b/documents/json_tkp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="3060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="3060"/>
   </bookViews>
   <sheets>
     <sheet name="solar_plant" sheetId="1" r:id="rId1"/>
@@ -1336,6 +1336,18 @@
     <xf numFmtId="1" fontId="0" fillId="37" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1356,18 +1368,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1975,7 +1975,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1985,9 +1985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2916,7 +2916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -2935,22 +2935,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="H1" s="53" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
+      <c r="H1" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="15" t="s">
@@ -3076,7 +3076,7 @@
       <c r="L7" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="M7" s="56">
+      <c r="M7" s="46">
         <v>1</v>
       </c>
     </row>
@@ -3273,13 +3273,13 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="249.75" customHeight="1">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
     </row>
     <row r="22" spans="1:7">
       <c r="B22" t="s">
@@ -3287,14 +3287,14 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3325,15 +3325,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
@@ -3345,10 +3345,10 @@
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="52"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="34" t="s">
         <v>140</v>
       </c>
@@ -3363,10 +3363,10 @@
       <c r="D4" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="33" t="s">
         <v>118</v>
       </c>
@@ -3441,10 +3441,10 @@
         <v>127</v>
       </c>
       <c r="D10" s="36"/>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="50"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="38"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
